--- a/Yield example.xlsx
+++ b/Yield example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailmissouri-my.sharepoint.com/personal/masseyr_umsystem_edu/Documents/CoverCrops/DST - PSA/Modules/Yield/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5A5DE8C-AEC2-4A61-B18E-3C16D8A0F42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{C5A5DE8C-AEC2-4A61-B18E-3C16D8A0F42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{437B117C-260D-4FD8-BB4E-C044E17D8569}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BC0217B-1CB7-4310-922D-FD01C1D10789}"/>
+    <workbookView xWindow="28680" yWindow="-5685" windowWidth="16440" windowHeight="28440" xr2:uid="{9BC0217B-1CB7-4310-922D-FD01C1D10789}"/>
   </bookViews>
   <sheets>
     <sheet name="Yield" sheetId="1" r:id="rId1"/>
@@ -133,13 +133,13 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Typical</t>
-  </si>
-  <si>
-    <t>Cover Crop Adjusted</t>
-  </si>
-  <si>
-    <t>Note: I have a love/hate relationship with the minimum value for the y axis. If we make it close to the value (e.g. $750), the difference of cover crops looks stark. If we make it a reasonable minimum income for crop production (e.g. $500) the difference is not stark. I personally don't think the difference is stark on cover crop impact on yield so I chose the lower minimum for the y axis. Expect someone to argue (and win?) for a value closer to the minimum shown in the table (e.g. $750). In other words, make this flexible.</t>
+    <t>Cover crop yield impact ($/acre)</t>
+  </si>
+  <si>
+    <t>Cover Crop Adjusted Yield ($/acre)</t>
+  </si>
+  <si>
+    <t>Typical Yield ($/acre)</t>
   </si>
 </sst>
 </file>
@@ -274,7 +274,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Yields</a:t>
+              <a:t>Revenue</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -316,6 +316,88 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Yield!$G$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cover crop yield impact ($/acre)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Yield!$E$17:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Yield!$G$17:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.8999999999999773</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.200000000000045</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB17-445A-A165-6CD788471329}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="726725888"/>
+        <c:axId val="726724224"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
@@ -324,15 +406,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Typical</c:v>
+                  <c:v>Typical Yield ($/acre)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:noFill/>
             <a:ln w="19050">
               <a:noFill/>
             </a:ln>
@@ -386,19 +466,17 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Yield!$G$16</c:f>
+              <c:f>Yield!$H$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cover Crop Adjusted</c:v>
+                  <c:v>Cover Crop Adjusted Yield ($/acre)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:noFill/>
             <a:ln w="19050">
               <a:noFill/>
             </a:ln>
@@ -425,7 +503,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Yield!$G$17:$G$19</c:f>
+              <c:f>Yield!$H$17:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="3"/>
@@ -456,8 +534,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="726725888"/>
-        <c:axId val="726724224"/>
+        <c:axId val="904494271"/>
+        <c:axId val="904495103"/>
       </c:barChart>
       <c:catAx>
         <c:axId val="726725888"/>
@@ -466,75 +544,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Years growing cover crops in this field</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -583,7 +592,6 @@
         <c:axId val="726724224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -622,11 +630,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>bushels/acre</a:t>
+                  <a:t>dollars/acre</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.23670406400564714"/>
+              <c:y val="0.27947724349480996"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -697,6 +713,108 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="904495103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="904494271"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="904494271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="904495103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -705,37 +823,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1333,16 +1420,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1885951</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1390,6 +1477,7 @@
       <sheetName val="Yield"/>
       <sheetName val="Output data"/>
       <sheetName val="Partial Budget Output1"/>
+      <sheetName val="CC DST mockup 7-20-22"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1555,46 +1643,11 @@
           <cell r="F16" t="str">
             <v>Typical</v>
           </cell>
-          <cell r="G16" t="str">
-            <v>Cover Crop Adjusted</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="E17">
-            <v>1</v>
-          </cell>
-          <cell r="F17">
-            <v>750</v>
-          </cell>
-          <cell r="G17">
-            <v>753.9</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="E18">
-            <v>3</v>
-          </cell>
-          <cell r="F18">
-            <v>750</v>
-          </cell>
-          <cell r="G18">
-            <v>763.2</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="E19">
-            <v>5</v>
-          </cell>
-          <cell r="F19">
-            <v>750</v>
-          </cell>
-          <cell r="G19">
-            <v>772.5</v>
-          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
+      <sheetData sheetId="14" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1921,10 +1974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A704EF-B709-4B8D-B757-CC01110C47CE}">
-  <dimension ref="C1:N19"/>
+  <dimension ref="C1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,12 +1991,12 @@
     <col min="14" max="14" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>1</v>
       </c>
@@ -1963,7 +2016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>6</v>
       </c>
@@ -1983,7 +2036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>7</v>
       </c>
@@ -2003,7 +2056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>9</v>
       </c>
@@ -2017,17 +2070,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="K6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
@@ -2038,10 +2091,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -2055,7 +2108,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="3:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>18</v>
       </c>
@@ -2066,7 +2119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D12" s="4" t="s">
         <v>21</v>
       </c>
@@ -2075,7 +2128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="3:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>22</v>
       </c>
@@ -2089,29 +2142,29 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I15" t="s">
+      <c r="M15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>27</v>
       </c>
       <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
         <v>28</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>29</v>
       </c>
-      <c r="N16" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E17">
         <v>1</v>
       </c>
@@ -2120,11 +2173,15 @@
         <v>750</v>
       </c>
       <c r="G17" s="3">
+        <f>H17-F17</f>
+        <v>3.8999999999999773</v>
+      </c>
+      <c r="H17" s="3">
         <f>$E$10*(1+VLOOKUP($E$8,$E$3:$H$5,2))*$E$12</f>
         <v>753.9</v>
       </c>
     </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E18">
         <v>3</v>
       </c>
@@ -2133,11 +2190,15 @@
         <v>750</v>
       </c>
       <c r="G18" s="3">
+        <f>H18-F18</f>
+        <v>13.200000000000045</v>
+      </c>
+      <c r="H18" s="3">
         <f>$E$10*(1+VLOOKUP($E$8,$E$3:$H$5,3))*$E$12</f>
         <v>763.2</v>
       </c>
     </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E19">
         <v>5</v>
       </c>
@@ -2146,6 +2207,10 @@
         <v>750</v>
       </c>
       <c r="G19" s="3">
+        <f>H19-F19</f>
+        <v>22.5</v>
+      </c>
+      <c r="H19" s="3">
         <f>$E$10*(1+VLOOKUP($E$8,$E$3:$H$5,4))*$E$12</f>
         <v>772.5</v>
       </c>
